--- a/data/pca/factorExposure/factorExposure_2009-11-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.00733019996018586</v>
+        <v>-0.01649939983563536</v>
       </c>
       <c r="C2">
-        <v>0.001635389063966441</v>
+        <v>0.000861066336216035</v>
       </c>
       <c r="D2">
-        <v>0.009577566577119712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008933788870315379</v>
+      </c>
+      <c r="E2">
+        <v>-0.001104517833160165</v>
+      </c>
+      <c r="F2">
+        <v>-0.01185981740314007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1091254847368464</v>
+        <v>-0.09369655984870151</v>
       </c>
       <c r="C4">
-        <v>-0.001508955563265342</v>
+        <v>0.01474395506414919</v>
       </c>
       <c r="D4">
-        <v>0.05062229389163184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08484355231613414</v>
+      </c>
+      <c r="E4">
+        <v>-0.02841701823558275</v>
+      </c>
+      <c r="F4">
+        <v>0.03089317251234275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1401910716522994</v>
+        <v>-0.1582326354925175</v>
       </c>
       <c r="C6">
-        <v>0.001621017305755931</v>
+        <v>0.02569732419941902</v>
       </c>
       <c r="D6">
-        <v>-0.03824365146820767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02124396609889814</v>
+      </c>
+      <c r="E6">
+        <v>-0.01161559516707726</v>
+      </c>
+      <c r="F6">
+        <v>0.04567663041554593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07853196071282598</v>
+        <v>-0.06321733114403745</v>
       </c>
       <c r="C7">
-        <v>-0.01353980089843707</v>
+        <v>-0.001677078010596495</v>
       </c>
       <c r="D7">
-        <v>0.02629927029384216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05239557677298337</v>
+      </c>
+      <c r="E7">
+        <v>-0.009164539965739241</v>
+      </c>
+      <c r="F7">
+        <v>0.04700859089446646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0660737088395829</v>
+        <v>-0.05690673903313655</v>
       </c>
       <c r="C8">
-        <v>-0.0224976384993426</v>
+        <v>-0.01362042555801286</v>
       </c>
       <c r="D8">
-        <v>-0.007755662987539844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03320420130346544</v>
+      </c>
+      <c r="E8">
+        <v>-0.01753341483056996</v>
+      </c>
+      <c r="F8">
+        <v>-0.02754293177764692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09131420680946514</v>
+        <v>-0.07108969152933098</v>
       </c>
       <c r="C9">
-        <v>-0.000752301521860698</v>
+        <v>0.01044613962067632</v>
       </c>
       <c r="D9">
-        <v>0.04686013019921786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08654084539936224</v>
+      </c>
+      <c r="E9">
+        <v>-0.02250587175795399</v>
+      </c>
+      <c r="F9">
+        <v>0.04641894161129173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.04597748870434417</v>
+        <v>-0.09377064389986284</v>
       </c>
       <c r="C10">
-        <v>0.001816606034699607</v>
+        <v>0.02097446925589209</v>
       </c>
       <c r="D10">
-        <v>-0.1382849639323379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1680208831303666</v>
+      </c>
+      <c r="E10">
+        <v>0.03465427099541463</v>
+      </c>
+      <c r="F10">
+        <v>-0.05366960036699213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.1021876486393084</v>
+        <v>-0.08781916552206177</v>
       </c>
       <c r="C11">
-        <v>-0.001885885227935783</v>
+        <v>0.01042406318758716</v>
       </c>
       <c r="D11">
-        <v>0.07731391088809299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1168035783281012</v>
+      </c>
+      <c r="E11">
+        <v>-0.04600856818710838</v>
+      </c>
+      <c r="F11">
+        <v>0.02068676861992219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.107754015346291</v>
+        <v>-0.09193007751895253</v>
       </c>
       <c r="C12">
-        <v>-0.004469766631370319</v>
+        <v>0.007558251628572307</v>
       </c>
       <c r="D12">
-        <v>0.07999025750380068</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1324884546318588</v>
+      </c>
+      <c r="E12">
+        <v>-0.04745892639451299</v>
+      </c>
+      <c r="F12">
+        <v>0.02653596060909976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04523814070373573</v>
+        <v>-0.04185105978183323</v>
       </c>
       <c r="C13">
-        <v>-0.002069699784555261</v>
+        <v>0.002727639941193504</v>
       </c>
       <c r="D13">
-        <v>0.02790737369316919</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05292956065932659</v>
+      </c>
+      <c r="E13">
+        <v>0.007529039828983488</v>
+      </c>
+      <c r="F13">
+        <v>0.002298216422870624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02386580053145065</v>
+        <v>-0.02416107603337606</v>
       </c>
       <c r="C14">
-        <v>0.01067050650344058</v>
+        <v>0.01404696880433278</v>
       </c>
       <c r="D14">
-        <v>0.017426489302947</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03235945857231923</v>
+      </c>
+      <c r="E14">
+        <v>-0.01691673242875034</v>
+      </c>
+      <c r="F14">
+        <v>0.01205476952514046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.04222010380319152</v>
+        <v>-0.03303665170105237</v>
       </c>
       <c r="C15">
-        <v>6.01024751425091e-05</v>
+        <v>0.0046675671422436</v>
       </c>
       <c r="D15">
-        <v>0.009585721026372179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04503955050428751</v>
+      </c>
+      <c r="E15">
+        <v>-0.005684089959770638</v>
+      </c>
+      <c r="F15">
+        <v>0.02342282917154993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08925130540249372</v>
+        <v>-0.07422924312001138</v>
       </c>
       <c r="C16">
-        <v>-0.008811903832914853</v>
+        <v>0.001149723667460775</v>
       </c>
       <c r="D16">
-        <v>0.07266543969161041</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1267638279534064</v>
+      </c>
+      <c r="E16">
+        <v>-0.0618098430900991</v>
+      </c>
+      <c r="F16">
+        <v>0.02437900048560964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.033991254071042</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003334916886282068</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01746796248889852</v>
+      </c>
+      <c r="E18">
+        <v>0.007767733496090589</v>
+      </c>
+      <c r="F18">
+        <v>-0.007481449297124118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06395417564250713</v>
+        <v>-0.06117009573643464</v>
       </c>
       <c r="C20">
-        <v>-0.004957367536402807</v>
+        <v>-0.0001216377945827597</v>
       </c>
       <c r="D20">
-        <v>0.02330967246334452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07800808516243167</v>
+      </c>
+      <c r="E20">
+        <v>-0.05528333058658699</v>
+      </c>
+      <c r="F20">
+        <v>0.02361382638236512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04150873882378919</v>
+        <v>-0.04106625588460375</v>
       </c>
       <c r="C21">
-        <v>0.00336859229416705</v>
+        <v>0.006637196872521563</v>
       </c>
       <c r="D21">
-        <v>0.00789768687607257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03724157975370501</v>
+      </c>
+      <c r="E21">
+        <v>0.005258781174569957</v>
+      </c>
+      <c r="F21">
+        <v>-0.02566299963334793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02412578413668098</v>
+        <v>-0.04326326903464207</v>
       </c>
       <c r="C22">
-        <v>-0.002306408640592038</v>
+        <v>0.0008203047488140069</v>
       </c>
       <c r="D22">
-        <v>-0.02225398396672579</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.005749289877094539</v>
+      </c>
+      <c r="E22">
+        <v>-0.03269305542591222</v>
+      </c>
+      <c r="F22">
+        <v>-0.04028742105283008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02406503793012426</v>
+        <v>-0.04323922995587577</v>
       </c>
       <c r="C23">
-        <v>-0.002302912711755085</v>
+        <v>0.0008121123125091562</v>
       </c>
       <c r="D23">
-        <v>-0.02225698416140988</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.005765460847871019</v>
+      </c>
+      <c r="E23">
+        <v>-0.0328769555518258</v>
+      </c>
+      <c r="F23">
+        <v>-0.04025161374446933</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09808184783148018</v>
+        <v>-0.0801413048122975</v>
       </c>
       <c r="C24">
-        <v>-0.01002546684037594</v>
+        <v>0.001668457607694993</v>
       </c>
       <c r="D24">
-        <v>0.08079231379579174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1215642742629187</v>
+      </c>
+      <c r="E24">
+        <v>-0.04906959142741885</v>
+      </c>
+      <c r="F24">
+        <v>0.02535705766055079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09959505212823758</v>
+        <v>-0.08485314660712903</v>
       </c>
       <c r="C25">
-        <v>-0.007250757858927447</v>
+        <v>0.004237911991134339</v>
       </c>
       <c r="D25">
-        <v>0.08278412046282799</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1093783699509606</v>
+      </c>
+      <c r="E25">
+        <v>-0.03215513683493698</v>
+      </c>
+      <c r="F25">
+        <v>0.02575234533304298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0519915740595212</v>
+        <v>-0.05747178143184657</v>
       </c>
       <c r="C26">
-        <v>0.009484729704482874</v>
+        <v>0.01394279163151305</v>
       </c>
       <c r="D26">
-        <v>0.005594423200641401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0413735645693377</v>
+      </c>
+      <c r="E26">
+        <v>-0.02715969253040922</v>
+      </c>
+      <c r="F26">
+        <v>-0.007266344838830026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.09519514683220341</v>
+        <v>-0.140858624565832</v>
       </c>
       <c r="C28">
-        <v>-0.01231575796193663</v>
+        <v>0.02114274437176579</v>
       </c>
       <c r="D28">
-        <v>-0.2521148842062731</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2619010995197864</v>
+      </c>
+      <c r="E28">
+        <v>0.06742956369026393</v>
+      </c>
+      <c r="F28">
+        <v>0.008894777328038042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02684906160633983</v>
+        <v>-0.02883371869396763</v>
       </c>
       <c r="C29">
-        <v>0.005812853653351305</v>
+        <v>0.008850315894117049</v>
       </c>
       <c r="D29">
-        <v>0.00708228949624271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03095110347914259</v>
+      </c>
+      <c r="E29">
+        <v>-0.0112124435726051</v>
+      </c>
+      <c r="F29">
+        <v>-0.01394973071076535</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1049886200614785</v>
+        <v>-0.06015476292964764</v>
       </c>
       <c r="C30">
-        <v>-0.01285449510381167</v>
+        <v>0.003009097571700664</v>
       </c>
       <c r="D30">
-        <v>0.04249911360707876</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08864316107792639</v>
+      </c>
+      <c r="E30">
+        <v>-0.01952235396504922</v>
+      </c>
+      <c r="F30">
+        <v>0.07841171675089671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03566266452863551</v>
+        <v>-0.05030409795050828</v>
       </c>
       <c r="C31">
-        <v>0.01096257067512316</v>
+        <v>0.01516578891511034</v>
       </c>
       <c r="D31">
-        <v>0.01537136938257937</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02480756807798713</v>
+      </c>
+      <c r="E31">
+        <v>-0.02744420924188153</v>
+      </c>
+      <c r="F31">
+        <v>-0.001876165213524328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.0489269987222676</v>
+        <v>-0.0498064872678947</v>
       </c>
       <c r="C32">
-        <v>-0.007710903545319921</v>
+        <v>-0.001976797387121434</v>
       </c>
       <c r="D32">
-        <v>0.006041158968809223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03635390257396848</v>
+      </c>
+      <c r="E32">
+        <v>-0.03144494982657996</v>
+      </c>
+      <c r="F32">
+        <v>0.003016159912168105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1051564089164283</v>
+        <v>-0.08987377759841542</v>
       </c>
       <c r="C33">
-        <v>-0.00675556403359874</v>
+        <v>0.007205160644694195</v>
       </c>
       <c r="D33">
-        <v>0.05305797619895553</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09967153534238125</v>
+      </c>
+      <c r="E33">
+        <v>-0.04367817760535345</v>
+      </c>
+      <c r="F33">
+        <v>0.03574988146913664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0908989903797057</v>
+        <v>-0.06774236858046999</v>
       </c>
       <c r="C34">
-        <v>-0.001815865991723674</v>
+        <v>0.01012293287294673</v>
       </c>
       <c r="D34">
-        <v>0.07379735317627902</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1082605913795036</v>
+      </c>
+      <c r="E34">
+        <v>-0.03484987701096664</v>
+      </c>
+      <c r="F34">
+        <v>0.03217818970521429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02183913441677172</v>
+        <v>-0.02471876087628663</v>
       </c>
       <c r="C35">
-        <v>-0.001695670166040075</v>
+        <v>0.002434208511271286</v>
       </c>
       <c r="D35">
-        <v>0.003480732104162766</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01134857836776385</v>
+      </c>
+      <c r="E35">
+        <v>-0.01170185665891799</v>
+      </c>
+      <c r="F35">
+        <v>0.0001002980074257088</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01544017350335873</v>
+        <v>-0.0275885681586427</v>
       </c>
       <c r="C36">
-        <v>0.007384550808251109</v>
+        <v>0.006828593773954549</v>
       </c>
       <c r="D36">
-        <v>0.02860331137171611</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03930846969333925</v>
+      </c>
+      <c r="E36">
+        <v>-0.01595216062588415</v>
+      </c>
+      <c r="F36">
+        <v>0.01488866857371291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-6.491935753947716e-07</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0002265268881344026</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-4.104129729289462e-05</v>
+      </c>
+      <c r="E37">
+        <v>0.0004024223943143347</v>
+      </c>
+      <c r="F37">
+        <v>0.0009739708497718999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.001767330358940318</v>
+        <v>-0.0009792104089105149</v>
       </c>
       <c r="C38">
-        <v>-0.0002467228053934597</v>
+        <v>0.0001458574632854825</v>
       </c>
       <c r="D38">
-        <v>-0.001641031621421049</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0004775350980692405</v>
+      </c>
+      <c r="E38">
+        <v>-0.0001257594312036792</v>
+      </c>
+      <c r="F38">
+        <v>-0.001054945608033814</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1373330896681403</v>
+        <v>-0.10546210303263</v>
       </c>
       <c r="C39">
-        <v>-0.002939257370144903</v>
+        <v>0.01569658867170045</v>
       </c>
       <c r="D39">
-        <v>0.1172815197980025</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1537440298073043</v>
+      </c>
+      <c r="E39">
+        <v>-0.05885269713833933</v>
+      </c>
+      <c r="F39">
+        <v>0.02841517309825507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02785052102593806</v>
+        <v>-0.04248656452885503</v>
       </c>
       <c r="C40">
-        <v>0.004534045291574604</v>
+        <v>0.006813709580328885</v>
       </c>
       <c r="D40">
-        <v>-0.01104512961032734</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03168467384320805</v>
+      </c>
+      <c r="E40">
+        <v>-0.003207458231018089</v>
+      </c>
+      <c r="F40">
+        <v>-0.01648794364095001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02044895236090834</v>
+        <v>-0.02765519599899094</v>
       </c>
       <c r="C41">
-        <v>0.004428076012036459</v>
+        <v>0.006720313141456077</v>
       </c>
       <c r="D41">
-        <v>-0.005905851750664127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01023713463214487</v>
+      </c>
+      <c r="E41">
+        <v>-0.01253815991489183</v>
+      </c>
+      <c r="F41">
+        <v>-0.006799046113817469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01984342580478134</v>
+        <v>-0.0403747887778245</v>
       </c>
       <c r="C43">
-        <v>0.006211864760953686</v>
+        <v>0.006829192011548746</v>
       </c>
       <c r="D43">
-        <v>0.008114750165140747</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01933435514362489</v>
+      </c>
+      <c r="E43">
+        <v>-0.02455520498643285</v>
+      </c>
+      <c r="F43">
+        <v>-0.01338032030711176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1090307878942839</v>
+        <v>-0.08004749769400349</v>
       </c>
       <c r="C44">
-        <v>0.005458087441104347</v>
+        <v>0.01948962956995078</v>
       </c>
       <c r="D44">
-        <v>0.0442808516515804</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09750687974945425</v>
+      </c>
+      <c r="E44">
+        <v>-0.06302290118357413</v>
+      </c>
+      <c r="F44">
+        <v>0.1549617375933915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005688449741952834</v>
+        <v>-0.02381248005655942</v>
       </c>
       <c r="C46">
-        <v>0.004082675444785763</v>
+        <v>0.003703983164087234</v>
       </c>
       <c r="D46">
-        <v>-0.001326547021625373</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01290039325958771</v>
+      </c>
+      <c r="E46">
+        <v>-0.0223564664549693</v>
+      </c>
+      <c r="F46">
+        <v>-0.007755536738457565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04216316661267464</v>
+        <v>-0.05208656444369991</v>
       </c>
       <c r="C47">
-        <v>-0.001818982233364919</v>
+        <v>0.003263198311253721</v>
       </c>
       <c r="D47">
-        <v>-0.02740938044441326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01381891544613788</v>
+      </c>
+      <c r="E47">
+        <v>-0.02385288477531934</v>
+      </c>
+      <c r="F47">
+        <v>-0.03259676248086625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.05257710690019989</v>
+        <v>-0.04975599095206423</v>
       </c>
       <c r="C48">
-        <v>-0.004461715597939322</v>
+        <v>0.002046611203959599</v>
       </c>
       <c r="D48">
-        <v>0.03050053666950435</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05032677374643763</v>
+      </c>
+      <c r="E48">
+        <v>0.006265658273794687</v>
+      </c>
+      <c r="F48">
+        <v>0.009956568438482213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2222234582253679</v>
+        <v>-0.2009965910855895</v>
       </c>
       <c r="C49">
-        <v>-0.02307277139831601</v>
+        <v>0.01880754497258156</v>
       </c>
       <c r="D49">
-        <v>-0.03603256377924167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006164140221401892</v>
+      </c>
+      <c r="E49">
+        <v>-0.03297086827831291</v>
+      </c>
+      <c r="F49">
+        <v>0.03611470168570451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03993850930015281</v>
+        <v>-0.05059868768113333</v>
       </c>
       <c r="C50">
-        <v>0.006139283268050138</v>
+        <v>0.01095843165438767</v>
       </c>
       <c r="D50">
-        <v>0.009211011059363785</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02388308457144299</v>
+      </c>
+      <c r="E50">
+        <v>-0.02933205741852294</v>
+      </c>
+      <c r="F50">
+        <v>0.009864754906962571</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.000779257744629062</v>
+        <v>-0.0003876351163470549</v>
       </c>
       <c r="C51">
-        <v>-7.048469851884674e-05</v>
+        <v>0.0001062663282316463</v>
       </c>
       <c r="D51">
-        <v>-0.0008556387891315113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0001670709225061881</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001657798600034389</v>
+      </c>
+      <c r="F51">
+        <v>0.000967967961724181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1596416872337095</v>
+        <v>-0.1464350706295836</v>
       </c>
       <c r="C52">
-        <v>-0.01380833042828909</v>
+        <v>0.01614670336121998</v>
       </c>
       <c r="D52">
-        <v>0.03158819145363336</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04343840347140188</v>
+      </c>
+      <c r="E52">
+        <v>-0.01969912778779503</v>
+      </c>
+      <c r="F52">
+        <v>0.04342816880003036</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1728466027312643</v>
+        <v>-0.1711771497268043</v>
       </c>
       <c r="C53">
-        <v>-0.01608627062595658</v>
+        <v>0.01906775992048286</v>
       </c>
       <c r="D53">
-        <v>0.002810849588570008</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005858510317899691</v>
+      </c>
+      <c r="E53">
+        <v>-0.03120635602980481</v>
+      </c>
+      <c r="F53">
+        <v>0.07416901957772791</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.0275250942089626</v>
+        <v>-0.02181977091928586</v>
       </c>
       <c r="C54">
-        <v>0.007623482459759625</v>
+        <v>0.01196201998352895</v>
       </c>
       <c r="D54">
-        <v>0.006842158147758392</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03375812842021487</v>
+      </c>
+      <c r="E54">
+        <v>-0.01713647484980484</v>
+      </c>
+      <c r="F54">
+        <v>-0.00498180404630614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1049327879383523</v>
+        <v>-0.1140000455776118</v>
       </c>
       <c r="C55">
-        <v>-0.004508509342582877</v>
+        <v>0.01672245991904565</v>
       </c>
       <c r="D55">
-        <v>-0.00524641871265593</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008289764736319928</v>
+      </c>
+      <c r="E55">
+        <v>-0.02706609442392778</v>
+      </c>
+      <c r="F55">
+        <v>0.04828966770636275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1718689198708445</v>
+        <v>-0.1764354873703405</v>
       </c>
       <c r="C56">
-        <v>-0.01823215145723549</v>
+        <v>0.01682471417299483</v>
       </c>
       <c r="D56">
-        <v>-0.01279708411904704</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0005694847423208603</v>
+      </c>
+      <c r="E56">
+        <v>-0.0351105667402087</v>
+      </c>
+      <c r="F56">
+        <v>0.05230735328777734</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0371803852423819</v>
+        <v>-0.0448898963358839</v>
       </c>
       <c r="C58">
-        <v>0.001081525596367473</v>
+        <v>-0.0005272097880572981</v>
       </c>
       <c r="D58">
-        <v>0.03745793002995612</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07113292977787153</v>
+      </c>
+      <c r="E58">
+        <v>-0.02793105959168429</v>
+      </c>
+      <c r="F58">
+        <v>-0.03732420694918011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1208928480652891</v>
+        <v>-0.1685184873351245</v>
       </c>
       <c r="C59">
-        <v>-0.01380876492311578</v>
+        <v>0.02160131445575519</v>
       </c>
       <c r="D59">
-        <v>-0.2278111188805836</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2186362151198013</v>
+      </c>
+      <c r="E59">
+        <v>0.04585242709166194</v>
+      </c>
+      <c r="F59">
+        <v>-0.03611146251625849</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2605823918636428</v>
+        <v>-0.2317758321589821</v>
       </c>
       <c r="C60">
-        <v>-0.0509425205627849</v>
+        <v>-0.002929993650364763</v>
       </c>
       <c r="D60">
-        <v>0.02007745490353884</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04301761630819546</v>
+      </c>
+      <c r="E60">
+        <v>-0.01211829234027033</v>
+      </c>
+      <c r="F60">
+        <v>-0.004589505480055822</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1135606135855801</v>
+        <v>-0.08119801086744156</v>
       </c>
       <c r="C61">
-        <v>-0.004728168706851025</v>
+        <v>0.01139291347924233</v>
       </c>
       <c r="D61">
-        <v>0.07048966876727897</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1175439060651249</v>
+      </c>
+      <c r="E61">
+        <v>-0.03876780796720231</v>
+      </c>
+      <c r="F61">
+        <v>0.01088207506757172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1691763324715095</v>
+        <v>-0.1692715537911479</v>
       </c>
       <c r="C62">
-        <v>-0.01435097834488835</v>
+        <v>0.02005988305319585</v>
       </c>
       <c r="D62">
-        <v>-0.0113061756665852</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006295570228542968</v>
+      </c>
+      <c r="E62">
+        <v>-0.03386254650099201</v>
+      </c>
+      <c r="F62">
+        <v>0.03492533433858582</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04770006272371276</v>
+        <v>-0.04568015797952679</v>
       </c>
       <c r="C63">
-        <v>-0.003128793459256001</v>
+        <v>0.001663719292860412</v>
       </c>
       <c r="D63">
-        <v>0.03509293900260806</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05934092091346867</v>
+      </c>
+      <c r="E63">
+        <v>-0.02202979343852908</v>
+      </c>
+      <c r="F63">
+        <v>0.003654820756094558</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09818404849297567</v>
+        <v>-0.1098106118437911</v>
       </c>
       <c r="C64">
-        <v>-0.002072753000686809</v>
+        <v>0.01092428182789967</v>
       </c>
       <c r="D64">
-        <v>0.005934959014142011</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04411648466548719</v>
+      </c>
+      <c r="E64">
+        <v>-0.02414714683959334</v>
+      </c>
+      <c r="F64">
+        <v>0.02488897321079661</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1275848650689324</v>
+        <v>-0.1482580990778942</v>
       </c>
       <c r="C65">
-        <v>0.008574781671486467</v>
+        <v>0.03288034826753799</v>
       </c>
       <c r="D65">
-        <v>-0.02739517924995282</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04027949467995511</v>
+      </c>
+      <c r="E65">
+        <v>-0.005464611924689322</v>
+      </c>
+      <c r="F65">
+        <v>0.03951195293424278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1662922001859825</v>
+        <v>-0.1245082720954686</v>
       </c>
       <c r="C66">
-        <v>-0.01019946186051341</v>
+        <v>0.01366487814243179</v>
       </c>
       <c r="D66">
-        <v>0.1081913579208344</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1423178664839436</v>
+      </c>
+      <c r="E66">
+        <v>-0.06561132195124329</v>
+      </c>
+      <c r="F66">
+        <v>0.03164298230231676</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06444076080365879</v>
+        <v>-0.05976103280165562</v>
       </c>
       <c r="C67">
-        <v>-0.006475239310631852</v>
+        <v>0.003136078694085302</v>
       </c>
       <c r="D67">
-        <v>0.02000090835246011</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05531564179150187</v>
+      </c>
+      <c r="E67">
+        <v>-0.01725371925346367</v>
+      </c>
+      <c r="F67">
+        <v>-0.03308775977038501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.07965104504003429</v>
+        <v>-0.1166699955020482</v>
       </c>
       <c r="C68">
-        <v>0.001638744385693602</v>
+        <v>0.03211340067226706</v>
       </c>
       <c r="D68">
-        <v>-0.2348141555601672</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2608868150575746</v>
+      </c>
+      <c r="E68">
+        <v>0.08633415356709452</v>
+      </c>
+      <c r="F68">
+        <v>0.004842066088964292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03623903040302097</v>
+        <v>-0.04005711131214993</v>
       </c>
       <c r="C69">
-        <v>-0.00463399110730231</v>
+        <v>0.001288445917832042</v>
       </c>
       <c r="D69">
-        <v>-0.009523420601067605</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007225007832449463</v>
+      </c>
+      <c r="E69">
+        <v>-0.02217210833195731</v>
+      </c>
+      <c r="F69">
+        <v>0.001372935227941835</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02989952018351989</v>
+        <v>-0.06617295003823639</v>
       </c>
       <c r="C70">
-        <v>-0.02582987880902102</v>
+        <v>-0.02774629649830148</v>
       </c>
       <c r="D70">
-        <v>-0.04996407303685602</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02411328195537488</v>
+      </c>
+      <c r="E70">
+        <v>0.03720643841552745</v>
+      </c>
+      <c r="F70">
+        <v>-0.1843001603475329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.09461773820576015</v>
+        <v>-0.1362951270420932</v>
       </c>
       <c r="C71">
-        <v>0.002692796779073973</v>
+        <v>0.03637743603351019</v>
       </c>
       <c r="D71">
-        <v>-0.2516973292518112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2733030701909542</v>
+      </c>
+      <c r="E71">
+        <v>0.09653413258517624</v>
+      </c>
+      <c r="F71">
+        <v>0.009736931811271844</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.135284842339998</v>
+        <v>-0.1420508120449361</v>
       </c>
       <c r="C72">
-        <v>0.0005166968306391897</v>
+        <v>0.02616720815399572</v>
       </c>
       <c r="D72">
-        <v>-0.02518136669664837</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0007989964976516217</v>
+      </c>
+      <c r="E72">
+        <v>-0.03854445503733573</v>
+      </c>
+      <c r="F72">
+        <v>0.03342322823780734</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2080622485456052</v>
+        <v>-0.2024878955306642</v>
       </c>
       <c r="C73">
-        <v>-0.02623716639557468</v>
+        <v>0.01226447360712212</v>
       </c>
       <c r="D73">
-        <v>-0.03056289294712475</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01785947433410458</v>
+      </c>
+      <c r="E73">
+        <v>-0.06466580941461904</v>
+      </c>
+      <c r="F73">
+        <v>0.03498162802371029</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1028377221919745</v>
+        <v>-0.09448344214830648</v>
       </c>
       <c r="C74">
-        <v>-0.007561151949477142</v>
+        <v>0.01319567784872955</v>
       </c>
       <c r="D74">
-        <v>0.002089656847064723</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01718473338381718</v>
+      </c>
+      <c r="E74">
+        <v>-0.04375212123885475</v>
+      </c>
+      <c r="F74">
+        <v>0.05905118524146848</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1378876874168101</v>
+        <v>-0.1273785597490174</v>
       </c>
       <c r="C75">
-        <v>0.002186111038711021</v>
+        <v>0.0279220907822973</v>
       </c>
       <c r="D75">
-        <v>-0.001375361883561939</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0303474774293547</v>
+      </c>
+      <c r="E75">
+        <v>-0.05752330249196359</v>
+      </c>
+      <c r="F75">
+        <v>0.021559954132328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0001651269586474535</v>
+        <v>-0.000110443691603554</v>
       </c>
       <c r="C76">
-        <v>1.330465275132992e-06</v>
+        <v>3.286148093448341e-05</v>
       </c>
       <c r="D76">
-        <v>-0.0004091232339929342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0001691320690971379</v>
+      </c>
+      <c r="E76">
+        <v>6.601799660312034e-05</v>
+      </c>
+      <c r="F76">
+        <v>-0.0001564467531508219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08621002980489162</v>
+        <v>-0.08714894548947545</v>
       </c>
       <c r="C77">
-        <v>0.0002808128562213782</v>
+        <v>0.008028732552116127</v>
       </c>
       <c r="D77">
-        <v>0.07488664697302388</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1131601342354658</v>
+      </c>
+      <c r="E77">
+        <v>-0.03894091921072246</v>
+      </c>
+      <c r="F77">
+        <v>0.03015807007901071</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1418659998559489</v>
+        <v>-0.1009110383981006</v>
       </c>
       <c r="C78">
-        <v>0.02144901374005494</v>
+        <v>0.03950277965957869</v>
       </c>
       <c r="D78">
-        <v>0.01887830875320556</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.115395616947364</v>
+      </c>
+      <c r="E78">
+        <v>-0.07374586372309555</v>
+      </c>
+      <c r="F78">
+        <v>0.04491674224881283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1557242084390849</v>
+        <v>-0.1638706496751534</v>
       </c>
       <c r="C79">
-        <v>-0.006519132108699512</v>
+        <v>0.02249346928639414</v>
       </c>
       <c r="D79">
-        <v>-0.0142000614635075</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01415789686774412</v>
+      </c>
+      <c r="E79">
+        <v>-0.04528694522171574</v>
+      </c>
+      <c r="F79">
+        <v>0.01157741416605712</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.0883650395574771</v>
+        <v>-0.08275381054373719</v>
       </c>
       <c r="C80">
-        <v>-0.01355824022836476</v>
+        <v>-0.001169720601519379</v>
       </c>
       <c r="D80">
-        <v>0.02539313472118276</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05679605888716905</v>
+      </c>
+      <c r="E80">
+        <v>-0.036056840581151</v>
+      </c>
+      <c r="F80">
+        <v>-0.02186620149763769</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1268524434416184</v>
+        <v>-0.1204095786661526</v>
       </c>
       <c r="C81">
-        <v>0.008097878962629904</v>
+        <v>0.03185255812635365</v>
       </c>
       <c r="D81">
-        <v>0.006415709086098552</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01462603650954129</v>
+      </c>
+      <c r="E81">
+        <v>-0.05598933681905394</v>
+      </c>
+      <c r="F81">
+        <v>0.01881023335238279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1707054196066373</v>
+        <v>-0.1655564666977518</v>
       </c>
       <c r="C82">
-        <v>-0.009910195356831984</v>
+        <v>0.02437450726222634</v>
       </c>
       <c r="D82">
-        <v>-0.001261077056052655</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003547697829656327</v>
+      </c>
+      <c r="E82">
+        <v>-0.02765372773736465</v>
+      </c>
+      <c r="F82">
+        <v>0.08287643045330072</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06950470401421277</v>
+        <v>-0.0596428455504659</v>
       </c>
       <c r="C83">
-        <v>-0.005746526738247564</v>
+        <v>0.002704128180982452</v>
       </c>
       <c r="D83">
-        <v>0.02141810701385832</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05067021403092418</v>
+      </c>
+      <c r="E83">
+        <v>-0.004516872762539762</v>
+      </c>
+      <c r="F83">
+        <v>-0.03009156351224714</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07704012252641122</v>
+        <v>-0.05868292522853703</v>
       </c>
       <c r="C84">
-        <v>0.0009215046479756535</v>
+        <v>0.01111533751493251</v>
       </c>
       <c r="D84">
-        <v>0.04056835439761025</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06347873832174668</v>
+      </c>
+      <c r="E84">
+        <v>-0.006199081709202945</v>
+      </c>
+      <c r="F84">
+        <v>0.00417467251522182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1375204615124656</v>
+        <v>-0.1361956356465272</v>
       </c>
       <c r="C85">
-        <v>0.001773352856348257</v>
+        <v>0.02782428024946792</v>
       </c>
       <c r="D85">
-        <v>-0.007382443202799039</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009654500827019538</v>
+      </c>
+      <c r="E85">
+        <v>-0.03688593590015007</v>
+      </c>
+      <c r="F85">
+        <v>0.04719623115896975</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.07633105990903057</v>
+        <v>-0.09599840846613664</v>
       </c>
       <c r="C86">
-        <v>-0.01143558398350829</v>
+        <v>-0.005137259937009406</v>
       </c>
       <c r="D86">
-        <v>-0.09725877185964278</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03927058035304556</v>
+      </c>
+      <c r="E86">
+        <v>-0.2179157981996248</v>
+      </c>
+      <c r="F86">
+        <v>-0.9089007533092587</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1356651115328959</v>
+        <v>-0.09625510140333862</v>
       </c>
       <c r="C87">
-        <v>0.002698037045722499</v>
+        <v>0.01961073767765268</v>
       </c>
       <c r="D87">
-        <v>0.04573462491408877</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09455190524688041</v>
+      </c>
+      <c r="E87">
+        <v>0.05299351934788285</v>
+      </c>
+      <c r="F87">
+        <v>0.04874172085474422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05583132629882914</v>
+        <v>-0.06078073187608784</v>
       </c>
       <c r="C88">
-        <v>-0.003577564553886289</v>
+        <v>0.002118607905674409</v>
       </c>
       <c r="D88">
-        <v>0.01389138111488013</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04920973951077969</v>
+      </c>
+      <c r="E88">
+        <v>-0.02386731748118731</v>
+      </c>
+      <c r="F88">
+        <v>0.01331539094863845</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1013031875377063</v>
+        <v>-0.1328444429438967</v>
       </c>
       <c r="C89">
-        <v>-0.02192389794981016</v>
+        <v>0.01323854944383657</v>
       </c>
       <c r="D89">
-        <v>-0.2620292903874833</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2480705895532023</v>
+      </c>
+      <c r="E89">
+        <v>0.08990675134789361</v>
+      </c>
+      <c r="F89">
+        <v>-0.009678207057543813</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1011682510262958</v>
+        <v>-0.1509578230253082</v>
       </c>
       <c r="C90">
-        <v>-0.0008978159969965124</v>
+        <v>0.03277925148584369</v>
       </c>
       <c r="D90">
-        <v>-0.2465171010391536</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2699948765425038</v>
+      </c>
+      <c r="E90">
+        <v>0.1124254598169798</v>
+      </c>
+      <c r="F90">
+        <v>-0.003997005294020017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.108944949157789</v>
+        <v>-0.120369416985971</v>
       </c>
       <c r="C91">
-        <v>-0.00433539373587712</v>
+        <v>0.01913405935510651</v>
       </c>
       <c r="D91">
-        <v>-0.02987595169778299</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01419834275875029</v>
+      </c>
+      <c r="E91">
+        <v>-0.05598286772597145</v>
+      </c>
+      <c r="F91">
+        <v>-0.0001344298697946073</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1024969569783689</v>
+        <v>-0.1480617751568976</v>
       </c>
       <c r="C92">
-        <v>-0.01659053140517958</v>
+        <v>0.02408943307871424</v>
       </c>
       <c r="D92">
-        <v>-0.2629014497081827</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2923992808887763</v>
+      </c>
+      <c r="E92">
+        <v>0.1018484153802437</v>
+      </c>
+      <c r="F92">
+        <v>-0.01295429120521703</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1066813015294238</v>
+        <v>-0.1521184043178561</v>
       </c>
       <c r="C93">
-        <v>-0.00674534830304394</v>
+        <v>0.02837846212335047</v>
       </c>
       <c r="D93">
-        <v>-0.2636745122702339</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2689009571027592</v>
+      </c>
+      <c r="E93">
+        <v>0.07775485300277045</v>
+      </c>
+      <c r="F93">
+        <v>0.002424911095251774</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.146063641636516</v>
+        <v>-0.1296189139002121</v>
       </c>
       <c r="C94">
-        <v>-0.002926675812573318</v>
+        <v>0.02457209699470989</v>
       </c>
       <c r="D94">
-        <v>0.01354096975631641</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04289812620533802</v>
+      </c>
+      <c r="E94">
+        <v>-0.05695164691680451</v>
+      </c>
+      <c r="F94">
+        <v>0.038366916730606</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1240189122323466</v>
+        <v>-0.1273058632145032</v>
       </c>
       <c r="C95">
-        <v>-0.01167963193717261</v>
+        <v>0.003474753407786379</v>
       </c>
       <c r="D95">
-        <v>0.04706339162797608</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09282781279509839</v>
+      </c>
+      <c r="E95">
+        <v>-0.04683105712167451</v>
+      </c>
+      <c r="F95">
+        <v>-0.007970629944270297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.0787900280708506</v>
+        <v>-0.1066433370091984</v>
       </c>
       <c r="C96">
-        <v>-0.9917839430072272</v>
+        <v>-0.9873923975216975</v>
       </c>
       <c r="D96">
-        <v>-0.01822326366863126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.0494243050758978</v>
+      </c>
+      <c r="E96">
+        <v>-0.05496866190536541</v>
+      </c>
+      <c r="F96">
+        <v>0.04137589058404818</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1763566345725686</v>
+        <v>-0.1923182919656016</v>
       </c>
       <c r="C97">
-        <v>-0.03943205680047215</v>
+        <v>-0.007607987828680904</v>
       </c>
       <c r="D97">
-        <v>-0.07975722304473501</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0167659112149398</v>
+      </c>
+      <c r="E97">
+        <v>-0.01803800576132855</v>
+      </c>
+      <c r="F97">
+        <v>-0.07824225430681563</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1972176723950092</v>
+        <v>-0.2053188937685152</v>
       </c>
       <c r="C98">
-        <v>-0.02984371917353821</v>
+        <v>0.006914455752033438</v>
       </c>
       <c r="D98">
-        <v>0.002837285594696715</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01321806833166419</v>
+      </c>
+      <c r="E98">
+        <v>0.08297643157396943</v>
+      </c>
+      <c r="F98">
+        <v>-0.09122512943798779</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05569799237373619</v>
+        <v>-0.055338989345485</v>
       </c>
       <c r="C99">
-        <v>-0.01277871901517747</v>
+        <v>-0.004634458667147505</v>
       </c>
       <c r="D99">
-        <v>0.009584684058998429</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03900532086544893</v>
+      </c>
+      <c r="E99">
+        <v>-0.02252770865285936</v>
+      </c>
+      <c r="F99">
+        <v>0.001105436833128517</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1665614410642402</v>
+        <v>-0.1254941670272579</v>
       </c>
       <c r="C100">
-        <v>-0.05987883927722335</v>
+        <v>-0.0547316382283151</v>
       </c>
       <c r="D100">
-        <v>0.5919578276266906</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3432383707388088</v>
+      </c>
+      <c r="E100">
+        <v>0.8886815393776389</v>
+      </c>
+      <c r="F100">
+        <v>-0.1470550954456493</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02652097039551888</v>
+        <v>-0.02879384810099019</v>
       </c>
       <c r="C101">
-        <v>0.005843381992854985</v>
+        <v>0.008876751694974778</v>
       </c>
       <c r="D101">
-        <v>0.006221569224421468</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03055594767080132</v>
+      </c>
+      <c r="E101">
+        <v>-0.01058447714520701</v>
+      </c>
+      <c r="F101">
+        <v>-0.01511704963165923</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
